--- a/com.redbus.in/testdata/Redbus_Testdata.xlsx
+++ b/com.redbus.in/testdata/Redbus_Testdata.xlsx
@@ -12,7 +12,6 @@
     <sheet name="User_Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K27"/>
 </workbook>
 </file>
 
@@ -67,7 +66,7 @@
     <t>9787071321</t>
   </si>
   <si>
-    <t>20</t>
+    <t>30</t>
   </si>
 </sst>
 </file>
